--- a/PayrollProject/templates/CourtOrderNonPriorityMultipleOrdersInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderNonPriorityMultipleOrdersInputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B15377-4485-4365-8517-C1AEE6905478}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39677763-9C69-44A5-BAC9-A7F394DB141B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -57,15 +57,9 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>October-2018</t>
-  </si>
-  <si>
     <t>C Employees over State pension age (attach passport/birth certificate)</t>
   </si>
   <si>
-    <t>November-2018</t>
-  </si>
-  <si>
     <t>12000</t>
   </si>
   <si>
@@ -79,6 +73,12 @@
   </si>
   <si>
     <t>DO NOT NPO Nov</t>
+  </si>
+  <si>
+    <t>October-2019</t>
+  </si>
+  <si>
+    <t>November-2019</t>
   </si>
 </sst>
 </file>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,25 +517,25 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,25 +603,25 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
